--- a/rnaSample/rnaSample_hbrown_06.05.19.xlsx
+++ b/rnaSample/rnaSample_hbrown_06.05.19.xlsx
@@ -67,7 +67,7 @@
     <t xml:space="preserve">6.05.19</t>
   </si>
   <si>
-    <t xml:space="preserve">Trizol</t>
+    <t xml:space="preserve">TRIzol</t>
   </si>
 </sst>
 </file>
@@ -220,7 +220,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H27"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -302,7 +302,8 @@
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="6" t="b">
+      <c r="H2" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I2" s="1"/>
@@ -343,10 +344,11 @@
       <c r="F3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="6" t="b">
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -369,10 +371,11 @@
       <c r="F4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="6" t="b">
+      <c r="G4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -395,10 +398,11 @@
       <c r="F5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="6" t="b">
+      <c r="G5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -421,10 +425,11 @@
       <c r="F6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="6" t="b">
+      <c r="G6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -447,10 +452,11 @@
       <c r="F7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="6" t="b">
+      <c r="G7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -473,10 +479,11 @@
       <c r="F8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="6" t="b">
+      <c r="G8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -499,10 +506,11 @@
       <c r="F9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="6" t="b">
+      <c r="G9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -525,10 +533,11 @@
       <c r="F10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="6" t="b">
+      <c r="G10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -551,10 +560,11 @@
       <c r="F11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="6" t="b">
+      <c r="G11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -577,10 +587,11 @@
       <c r="F12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="6" t="b">
+      <c r="G12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -603,10 +614,11 @@
       <c r="F13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="6" t="b">
+      <c r="G13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -629,10 +641,11 @@
       <c r="F14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="6" t="b">
+      <c r="G14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -655,10 +668,11 @@
       <c r="F15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="6" t="b">
+      <c r="G15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -681,10 +695,11 @@
       <c r="F16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="6" t="b">
+      <c r="G16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -707,10 +722,11 @@
       <c r="F17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="6" t="b">
+      <c r="G17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -733,10 +749,11 @@
       <c r="F18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="6" t="b">
+      <c r="G18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -759,10 +776,11 @@
       <c r="F19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="6" t="b">
+      <c r="G19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -785,10 +803,11 @@
       <c r="F20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="6" t="b">
+      <c r="G20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -811,10 +830,11 @@
       <c r="F21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="6" t="b">
+      <c r="G21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -837,10 +857,11 @@
       <c r="F22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="6" t="b">
+      <c r="G22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -863,10 +884,11 @@
       <c r="F23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="6" t="b">
+      <c r="G23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -889,10 +911,11 @@
       <c r="F24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="6" t="b">
+      <c r="G24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -915,10 +938,11 @@
       <c r="F25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="6" t="b">
+      <c r="G25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -941,10 +965,11 @@
       <c r="F26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="6" t="b">
+      <c r="G26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -967,10 +992,11 @@
       <c r="F27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="6" t="b">
+      <c r="G27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>

--- a/rnaSample/rnaSample_hbrown_06.05.19.xlsx
+++ b/rnaSample/rnaSample_hbrown_06.05.19.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">biosampleNumber</t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">rnaDate</t>
@@ -78,7 +78,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -107,6 +107,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -171,7 +177,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -184,15 +190,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -220,7 +230,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G27"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -235,7 +245,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -281,28 +291,28 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4" t="n">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="n">
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="6" t="n">
+      <c r="G2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -329,7 +339,7 @@
       <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -338,16 +348,16 @@
       <c r="D3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="6" t="n">
+      <c r="G3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -356,7 +366,7 @@
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -365,16 +375,16 @@
       <c r="D4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="6" t="n">
+      <c r="G4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -383,7 +393,7 @@
       <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -392,16 +402,16 @@
       <c r="D5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="6" t="n">
+      <c r="G5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -410,7 +420,7 @@
       <c r="A6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -419,16 +429,16 @@
       <c r="D6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="6" t="n">
+      <c r="G6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -437,7 +447,7 @@
       <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -446,16 +456,16 @@
       <c r="D7" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="6" t="n">
+      <c r="G7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -464,7 +474,7 @@
       <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -473,16 +483,16 @@
       <c r="D8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="6" t="n">
+      <c r="G8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -491,7 +501,7 @@
       <c r="A9" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -500,16 +510,16 @@
       <c r="D9" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="6" t="n">
+      <c r="G9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -518,7 +528,7 @@
       <c r="A10" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -527,16 +537,16 @@
       <c r="D10" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="6" t="n">
+      <c r="G10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -545,7 +555,7 @@
       <c r="A11" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -554,16 +564,16 @@
       <c r="D11" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="6" t="n">
+      <c r="G11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -572,7 +582,7 @@
       <c r="A12" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -581,16 +591,16 @@
       <c r="D12" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="6" t="n">
+      <c r="G12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -599,7 +609,7 @@
       <c r="A13" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -608,16 +618,16 @@
       <c r="D13" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="6" t="n">
+      <c r="G13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -626,7 +636,7 @@
       <c r="A14" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -635,16 +645,16 @@
       <c r="D14" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="6" t="n">
+      <c r="G14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -653,7 +663,7 @@
       <c r="A15" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="0" t="n">
@@ -662,16 +672,16 @@
       <c r="D15" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="6" t="n">
+      <c r="G15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -680,7 +690,7 @@
       <c r="A16" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="0" t="n">
@@ -689,16 +699,16 @@
       <c r="D16" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="6" t="n">
+      <c r="G16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -707,7 +717,7 @@
       <c r="A17" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="0" t="n">
@@ -716,16 +726,16 @@
       <c r="D17" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="6" t="n">
+      <c r="G17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -734,7 +744,7 @@
       <c r="A18" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="0" t="n">
@@ -743,16 +753,16 @@
       <c r="D18" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="6" t="n">
+      <c r="G18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -761,7 +771,7 @@
       <c r="A19" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="0" t="n">
@@ -770,16 +780,16 @@
       <c r="D19" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="6" t="n">
+      <c r="G19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -788,7 +798,7 @@
       <c r="A20" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="0" t="n">
@@ -797,16 +807,16 @@
       <c r="D20" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="6" t="n">
+      <c r="G20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -815,7 +825,7 @@
       <c r="A21" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="0" t="n">
@@ -824,16 +834,16 @@
       <c r="D21" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="6" t="n">
+      <c r="G21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -842,7 +852,7 @@
       <c r="A22" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="0" t="n">
@@ -851,16 +861,16 @@
       <c r="D22" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="6" t="n">
+      <c r="G22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -869,7 +879,7 @@
       <c r="A23" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="0" t="n">
@@ -878,16 +888,16 @@
       <c r="D23" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="6" t="n">
+      <c r="G23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -896,7 +906,7 @@
       <c r="A24" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="0" t="n">
@@ -905,16 +915,16 @@
       <c r="D24" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="6" t="n">
+      <c r="G24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -923,7 +933,7 @@
       <c r="A25" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="0" t="n">
@@ -932,16 +942,16 @@
       <c r="D25" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="6" t="n">
+      <c r="G25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -950,7 +960,7 @@
       <c r="A26" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="0" t="n">
@@ -959,16 +969,16 @@
       <c r="D26" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="6" t="n">
+      <c r="G26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -977,7 +987,7 @@
       <c r="A27" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="0" t="n">
@@ -986,16 +996,16 @@
       <c r="D27" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="6" t="n">
+      <c r="G27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>

--- a/rnaSample/rnaSample_hbrown_06.05.19.xlsx
+++ b/rnaSample/rnaSample_hbrown_06.05.19.xlsx
@@ -58,13 +58,13 @@
     <t xml:space="preserve">RIN</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20.19</t>
+    <t xml:space="preserve">05.20.19</t>
   </si>
   <si>
     <t xml:space="preserve">H.BROWN</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05.19</t>
+    <t xml:space="preserve">06.05.19</t>
   </si>
   <si>
     <t xml:space="preserve">TRIzol</t>
@@ -78,7 +78,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -107,12 +107,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -177,7 +171,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -190,23 +184,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -230,10 +220,10 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.61"/>
   </cols>
@@ -245,7 +235,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -291,29 +281,28 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5" t="n">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="5" t="n">
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I2" s="1"/>
@@ -336,677 +325,652 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="D17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="D21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="D22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="D23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="D24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="A25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="4" t="s">
+      <c r="D25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="4" t="s">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="4" t="s">
+      <c r="D26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="4" t="s">
+      <c r="A27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="4" t="s">
+      <c r="D27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="6" t="b">
         <v>0</v>
       </c>
     </row>

--- a/rnaSample/rnaSample_hbrown_06.05.19.xlsx
+++ b/rnaSample/rnaSample_hbrown_06.05.19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/rnaSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC05D85-2E56-F84C-B6BE-9475A64879C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DE6A7F-5618-CA41-B985-17C78AC81E26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="13">
   <si>
     <t>harvestDate</t>
   </si>
@@ -62,14 +62,14 @@
   <si>
     <t>TRIzol</t>
   </si>
+  <si>
+    <t>False</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -135,7 +135,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:L1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -527,8 +527,8 @@
       <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="6" t="b">
-        <v>0</v>
+      <c r="H2" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -571,8 +571,8 @@
       <c r="G3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="6" t="b">
-        <v>0</v>
+      <c r="H3" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -597,8 +597,8 @@
       <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="6" t="b">
-        <v>0</v>
+      <c r="H4" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -623,8 +623,8 @@
       <c r="G5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="6" t="b">
-        <v>0</v>
+      <c r="H5" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -649,8 +649,8 @@
       <c r="G6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="6" t="b">
-        <v>0</v>
+      <c r="H6" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -675,8 +675,8 @@
       <c r="G7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="6" t="b">
-        <v>0</v>
+      <c r="H7" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -701,8 +701,8 @@
       <c r="G8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="6" t="b">
-        <v>0</v>
+      <c r="H8" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
@@ -727,8 +727,8 @@
       <c r="G9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="6" t="b">
-        <v>0</v>
+      <c r="H9" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -753,8 +753,8 @@
       <c r="G10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="6" t="b">
-        <v>0</v>
+      <c r="H10" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
@@ -779,8 +779,8 @@
       <c r="G11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="6" t="b">
-        <v>0</v>
+      <c r="H11" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
@@ -805,8 +805,8 @@
       <c r="G12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="6" t="b">
-        <v>0</v>
+      <c r="H12" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
@@ -831,8 +831,8 @@
       <c r="G13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="6" t="b">
-        <v>0</v>
+      <c r="H13" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
@@ -857,8 +857,8 @@
       <c r="G14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="6" t="b">
-        <v>0</v>
+      <c r="H14" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
@@ -883,8 +883,8 @@
       <c r="G15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="6" t="b">
-        <v>0</v>
+      <c r="H15" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
@@ -909,8 +909,8 @@
       <c r="G16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="6" t="b">
-        <v>0</v>
+      <c r="H16" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -935,8 +935,8 @@
       <c r="G17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="6" t="b">
-        <v>0</v>
+      <c r="H17" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -961,8 +961,8 @@
       <c r="G18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="6" t="b">
-        <v>0</v>
+      <c r="H18" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -987,8 +987,8 @@
       <c r="G19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="6" t="b">
-        <v>0</v>
+      <c r="H19" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1013,8 +1013,8 @@
       <c r="G20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="6" t="b">
-        <v>0</v>
+      <c r="H20" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1039,8 +1039,8 @@
       <c r="G21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="6" t="b">
-        <v>0</v>
+      <c r="H21" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1065,8 +1065,8 @@
       <c r="G22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="6" t="b">
-        <v>0</v>
+      <c r="H22" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1091,8 +1091,8 @@
       <c r="G23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="6" t="b">
-        <v>0</v>
+      <c r="H23" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1117,8 +1117,8 @@
       <c r="G24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="6" t="b">
-        <v>0</v>
+      <c r="H24" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1143,8 +1143,8 @@
       <c r="G25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="6" t="b">
-        <v>0</v>
+      <c r="H25" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1169,8 +1169,8 @@
       <c r="G26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="6" t="b">
-        <v>0</v>
+      <c r="H26" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1195,8 +1195,8 @@
       <c r="G27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="6" t="b">
-        <v>0</v>
+      <c r="H27" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
